--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T00:37:08+08:00</t>
+    <t>2024-10-23T02:33:36+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-23T02:33:36+08:00</t>
+    <t>2025-07-28T13:16:22+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2310,15 +2310,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.55859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.671875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,26 +2329,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="159.0703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.96484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="138.09375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="55.8046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="173.13671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="145.83984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.47265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="148.83203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:16:22+08:00</t>
+    <t>2025-07-28T13:45:25+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:45:25+08:00</t>
+    <t>2025-07-28T14:53:50+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T14:53:50+08:00</t>
+    <t>2025-08-20T12:47:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>MI-TW</t>
+    <t>經濟部產業發展署</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>MI-TW (https://mitw.dicom.org.tw/)</t>
+    <t>經濟部產業發展署 (https://www.ida.gov.tw/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -2310,15 +2310,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.0390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.99609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2329,26 +2329,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="138.09375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.41015625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.58203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="47.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="148.83203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="125.08984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="47.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="148.43359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="125.03125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T12:47:30+08:00</t>
+    <t>2025-08-23T17:17:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-23T17:17:30+08:00</t>
+    <t>2025-09-09T02:59:45+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T02:59:45+08:00</t>
+    <t>2025-09-09T04:22:03+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T04:22:03+08:00</t>
+    <t>2025-09-15T15:24:30+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1062,7 +1062,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1496,7 +1496,7 @@
     <t>CarePlan.activity.progress.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$100</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3860" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3645" uniqueCount="605">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:24:30+08:00</t>
+    <t>2025-09-26T02:27:53+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/CarePlan-twcore</t>
+    <t>http://hl7.org/fhir/StructureDefinition/CarePlan</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -365,7 +365,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -382,7 +382,7 @@
 </t>
   </si>
   <si>
-    <t>CarePlan Resource之內容摘要以供人閱讀</t>
+    <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -397,7 +397,287 @@
     <t>Act.text?</t>
   </si>
   <si>
-    <t>CarePlan.text.id</t>
+    <t>CarePlan.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>CarePlan.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>CarePlan.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>CarePlan.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External Ids for this plan</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PTH-3</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|Questionnaire|4.0.1|Measure|4.0.1|ActivityDefinition|4.0.1|OperationDefinition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>CarePlan.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>CarePlan.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Fulfills CarePlan</t>
+  </si>
+  <si>
+    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
+  </si>
+  <si>
+    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>CarePlan.replaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">supersedes
+</t>
+  </si>
+  <si>
+    <t>CarePlan replaced by this CarePlan</t>
+  </si>
+  <si>
+    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
+  </si>
+  <si>
+    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
+  </si>
+  <si>
+    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>CarePlan.partOf</t>
+  </si>
+  <si>
+    <t>Part of referenced CarePlan</t>
+  </si>
+  <si>
+    <t>A larger care plan of which this particular care plan is a component or step.</t>
+  </si>
+  <si>
+    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
+  </si>
+  <si>
+    <t>CarePlan.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
+  </si>
+  <si>
+    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
+This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
+  </si>
+  <si>
+    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status {uses different ValueSet}</t>
+  </si>
+  <si>
+    <t>.statusCode planned = new active = active completed = completed</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>PTH-5</t>
+  </si>
+  <si>
+    <t>CarePlan.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | order | option</t>
+  </si>
+  <si>
+    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>CarePlan.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of plan</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+  </si>
+  <si>
+    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
+  </si>
+  <si>
+    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-category|4.0.1</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>CarePlan.category.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -416,24 +696,10 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>CarePlan.text.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
+    <t>CarePlan.category.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -449,320 +715,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>CarePlan.text.status</t>
-  </si>
-  <si>
-    <t>generated | additional</t>
-  </si>
-  <si>
-    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Constrained value set of narrative statuses.</t>
-  </si>
-  <si>
-    <t>https://twcore.mohw.gov.tw/ig/twcore/ValueSet/narrative-status</t>
-  </si>
-  <si>
-    <t>Narrative.status</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>CarePlan.text.div</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xhtml
-</t>
-  </si>
-  <si>
-    <t>Limited xhtml content</t>
-  </si>
-  <si>
-    <t>The actual narrative content, a stripped down version of XHTML.</t>
-  </si>
-  <si>
-    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
-  </si>
-  <si>
-    <t>Narrative.div</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
-  </si>
-  <si>
-    <t>CarePlan.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>CarePlan.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>CarePlan.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>CarePlan.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External Ids for this plan</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PTH-3</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(PlanDefinition|Questionnaire|Measure|ActivityDefinition|OperationDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>CarePlan.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>CarePlan.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/CarePlan-twcore)
-</t>
-  </si>
-  <si>
-    <t>Fulfills CarePlan</t>
-  </si>
-  <si>
-    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
-  </si>
-  <si>
-    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>CarePlan.replaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supersedes
-</t>
-  </si>
-  <si>
-    <t>CarePlan replaced by this CarePlan</t>
-  </si>
-  <si>
-    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>CarePlan.partOf</t>
-  </si>
-  <si>
-    <t>Part of referenced CarePlan</t>
-  </si>
-  <si>
-    <t>A larger care plan of which this particular care plan is a component or step.</t>
-  </si>
-  <si>
-    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
-  </si>
-  <si>
-    <t>CarePlan.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
-This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status</t>
-  </si>
-  <si>
-    <t>Request.status {uses different ValueSet}</t>
-  </si>
-  <si>
-    <t>.statusCode planned = new active = active completed = completed</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>PTH-5</t>
-  </si>
-  <si>
-    <t>CarePlan.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a care plan</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-intent</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>CarePlan.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Type of plan.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g., "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pattern:$this}
-</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>CarePlan.category.id</t>
-  </si>
-  <si>
-    <t>CarePlan.category.extension</t>
-  </si>
-  <si>
     <t>CarePlan.category.coding</t>
   </si>
   <si>
@@ -942,26 +894,6 @@
     <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
-    <t>CarePlan.category:AssessPlan</t>
-  </si>
-  <si>
-    <t>AssessPlan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://twcore.mohw.gov.tw/ig/twcore/CodeSystem/careplan-category-tw"/&gt;
-    &lt;code value="assess-plan"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>CarePlan.title</t>
   </si>
   <si>
@@ -998,9 +930,6 @@
   </si>
   <si>
     <t>運動處方的適用主體，即這個運動處方是為誰設計的？</t>
-  </si>
-  <si>
-    <t>Who care plan is for.</t>
   </si>
   <si>
     <t>Identifies the patient or group whose intended care is described by the plan.</t>
@@ -1107,7 +1036,7 @@
     <t>CarePlan.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Encounter-twcore)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1239,7 +1168,7 @@
     <t>CarePlan.contributor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Device-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/RelatedPerson-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/CareTeam-twcore)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1255,7 +1184,7 @@
     <t>CarePlan.careTeam</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/CareTeam-twcore)
+    <t xml:space="preserve">Reference(CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1277,7 +1206,7 @@
     <t>CarePlan.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Condition-twcore)
+    <t xml:space="preserve">Reference(Condition|4.0.1)
 </t>
   </si>
   <si>
@@ -1308,7 +1237,7 @@
     <t>CarePlan.supportingInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1438,7 +1367,7 @@
     <t>Identifies the results of the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
+    <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome|4.0.1</t>
   </si>
   <si>
     <t>CarePlan.activity.outcomeReference</t>
@@ -1552,7 +1481,7 @@
     <t>CarePlan.activity.reference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment|CommunicationRequest|DeviceRequest|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/MedicationRequest-twcore|NutritionOrder|Task|ServiceRequest|VisionPrescription|RequestGroup)
+    <t xml:space="preserve">Reference(Appointment|4.0.1|CommunicationRequest|4.0.1|DeviceRequest|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|Task|4.0.1|ServiceRequest|4.0.1|VisionPrescription|4.0.1|RequestGroup|4.0.1)
 </t>
   </si>
   <si>
@@ -1624,7 +1553,7 @@
     <t>CarePlan.activity.detail.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(PlanDefinition|ActivityDefinition|Questionnaire|Measure|OperationDefinition)
+    <t xml:space="preserve">canonical(PlanDefinition|4.0.1|ActivityDefinition|4.0.1|Questionnaire|4.0.1|Measure|4.0.1|OperationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1658,7 +1587,7 @@
     <t>Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1685,7 +1614,7 @@
     <t>Identifies why a care plan activity is needed.  Can include any health condition codes as well as such concepts as "general wellness", prophylaxis, surgical preparation, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1694,7 +1623,7 @@
     <t>CarePlan.activity.detail.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Condition-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Observation-clinical-result-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/DiagnosticReport-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/DocumentReference-twcore)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1710,7 +1639,7 @@
     <t>CarePlan.activity.detail.goal</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Goal)
+    <t xml:space="preserve">Reference(Goal|4.0.1)
 </t>
   </si>
   <si>
@@ -1815,7 +1744,7 @@
     <t>CarePlan.activity.detail.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Location-twcore)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1840,7 +1769,7 @@
     <t>CarePlan.activity.detail.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Practitioner-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/PractitionerRole-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Organization-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/RelatedPerson-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Patient-twcore|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/CareTeam-twcore|HealthcareService|https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Device-twcore)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|RelatedPerson|4.0.1|Patient|4.0.1|CareTeam|4.0.1|HealthcareService|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1866,7 +1795,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Medication|Substance)</t>
+Reference(Medication|4.0.1|Substance|4.0.1)</t>
   </si>
   <si>
     <t>What is to be administered/supplied</t>
@@ -1878,27 +1807,13 @@
     <t>A product supplied or administered as part of a care plan activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=PRD].role</t>
   </si>
   <si>
     <t>RXE-2 / RXO-1 / RXD-2</t>
-  </si>
-  <si>
-    <t>CarePlan.activity.detail.product[x]:productReference</t>
-  </si>
-  <si>
-    <t>productReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://twcore.mohw.gov.tw/ig/twcore/StructureDefinition/Medication-twcore|Substance)
-</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.dailyAmount</t>
@@ -1908,7 +1823,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -2301,7 +2216,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN106"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2310,9 +2225,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.48828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.58203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="36.58203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.99609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2335,7 +2250,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="136.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.41015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.24609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3058,7 +2973,7 @@
         <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>20</v>
@@ -3162,14 +3077,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -3181,15 +3096,17 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>20</v>
@@ -3238,13 +3155,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -3256,7 +3173,7 @@
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -3267,14 +3184,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3293,16 +3210,16 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3340,19 +3257,19 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3364,13 +3281,13 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -3381,42 +3298,46 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I10" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="J10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>20</v>
       </c>
@@ -3440,49 +3361,49 @@
         <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>146</v>
-      </c>
       <c r="AG10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -3493,10 +3414,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3504,33 +3425,35 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="O11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>20</v>
       </c>
@@ -3578,43 +3501,43 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3630,20 +3553,18 @@
         <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>20</v>
@@ -3692,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3704,13 +3625,13 @@
         <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -3721,14 +3642,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3744,19 +3665,19 @@
         <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3806,7 +3727,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3818,13 +3739,13 @@
         <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3842,7 +3763,7 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3855,25 +3776,23 @@
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3922,7 +3841,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3934,13 +3853,13 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3951,14 +3870,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3977,19 +3896,19 @@
         <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -4038,7 +3957,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4053,24 +3972,24 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4093,15 +4012,17 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -4150,7 +4071,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4165,10 +4086,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -4179,10 +4100,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4190,33 +4111,35 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -4240,13 +4163,13 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>20</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -4264,13 +4187,13 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
@@ -4282,54 +4205,56 @@
         <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>20</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4354,13 +4279,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>20</v>
+        <v>199</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4378,13 +4303,13 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>20</v>
@@ -4393,7 +4318,7 @@
         <v>99</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -4407,24 +4332,24 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>20</v>
@@ -4433,19 +4358,19 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -4470,13 +4395,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4494,7 +4419,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4509,13 +4434,13 @@
         <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>20</v>
@@ -4523,10 +4448,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4537,7 +4462,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4546,20 +4471,18 @@
         <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4608,25 +4531,25 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -4637,46 +4560,44 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4700,63 +4621,63 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4773,25 +4694,25 @@
         <v>88</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
@@ -4816,13 +4737,13 @@
         <v>20</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>20</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>20</v>
@@ -4840,13 +4761,13 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
@@ -4855,24 +4776,24 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>20</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4880,35 +4801,31 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -4932,50 +4849,52 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AC23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>20</v>
@@ -4983,21 +4902,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -5009,15 +4928,17 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -5054,37 +4975,37 @@
         <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -5095,44 +5016,46 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>132</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -5141,7 +5064,7 @@
         <v>20</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>20</v>
@@ -5168,51 +5091,51 @@
         <v>20</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>20</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5220,13 +5143,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>20</v>
@@ -5235,20 +5158,18 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -5296,13 +5217,13 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
@@ -5314,21 +5235,21 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5336,31 +5257,33 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -5369,7 +5292,7 @@
         <v>20</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>20</v>
@@ -5408,7 +5331,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5420,38 +5343,38 @@
         <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>128</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>20</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -5460,21 +5383,21 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
       </c>
@@ -5510,51 +5433,51 @@
         <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>128</v>
+        <v>264</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>20</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5562,13 +5485,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>20</v>
@@ -5577,19 +5500,19 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5599,7 +5522,7 @@
         <v>20</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>20</v>
@@ -5638,7 +5561,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5656,21 +5579,21 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5693,18 +5616,20 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -5752,7 +5677,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5770,21 +5695,21 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>265</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5792,13 +5717,13 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
@@ -5807,18 +5732,16 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>269</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5827,7 +5750,7 @@
         <v>20</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>20</v>
@@ -5866,7 +5789,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5884,21 +5807,21 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>273</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5906,13 +5829,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>20</v>
@@ -5921,17 +5844,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5980,7 +5903,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5998,35 +5921,35 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>20</v>
+        <v>292</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
@@ -6035,20 +5958,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -6096,10 +6015,10 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>87</v>
@@ -6111,24 +6030,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>20</v>
+        <v>296</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>20</v>
+        <v>298</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6148,23 +6067,19 @@
         <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>20</v>
       </c>
@@ -6212,7 +6127,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>216</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6224,65 +6139,61 @@
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>297</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>219</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6291,7 +6202,7 @@
         <v>20</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>302</v>
+        <v>20</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>20</v>
@@ -6306,31 +6217,31 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6342,16 +6253,16 @@
         <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>20</v>
@@ -6359,10 +6270,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6370,13 +6281,13 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
@@ -6385,15 +6296,17 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6442,7 +6355,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6451,7 +6364,7 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>99</v>
@@ -6460,7 +6373,7 @@
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -6471,10 +6384,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6482,13 +6395,13 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>20</v>
@@ -6497,18 +6410,18 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
       </c>
@@ -6532,13 +6445,13 @@
         <v>20</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>20</v>
@@ -6556,7 +6469,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6574,10 +6487,10 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>310</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -6585,24 +6498,24 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>20</v>
@@ -6611,18 +6524,18 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>313</v>
+        <v>145</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6670,10 +6583,10 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>87</v>
@@ -6685,24 +6598,24 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6722,18 +6635,20 @@
         <v>20</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6782,7 +6697,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6794,13 +6709,13 @@
         <v>20</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6811,21 +6726,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>20</v>
@@ -6834,19 +6749,19 @@
         <v>20</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>134</v>
+        <v>331</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6884,65 +6799,65 @@
         <v>20</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>138</v>
+        <v>327</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>128</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>20</v>
@@ -6951,18 +6866,20 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>124</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
       </c>
@@ -7010,7 +6927,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7019,34 +6936,34 @@
         <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>20</v>
+        <v>343</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>147</v>
+        <v>344</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>20</v>
+        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7065,17 +6982,15 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>101</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7100,13 +7015,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -7124,7 +7039,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7139,13 +7054,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>147</v>
+        <v>353</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>20</v>
@@ -7153,10 +7068,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7164,13 +7079,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>20</v>
@@ -7179,16 +7094,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>171</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7238,7 +7153,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7253,13 +7168,13 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>20</v>
+        <v>361</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>20</v>
@@ -7267,10 +7182,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7290,20 +7205,18 @@
         <v>20</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7352,7 +7265,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>347</v>
+        <v>216</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7364,13 +7277,13 @@
         <v>20</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -7381,21 +7294,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7404,19 +7317,19 @@
         <v>20</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>349</v>
+        <v>133</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>350</v>
+        <v>134</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>351</v>
+        <v>219</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>352</v>
+        <v>136</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7454,65 +7367,65 @@
         <v>20</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>348</v>
+        <v>223</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>353</v>
+        <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>354</v>
+        <v>217</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>355</v>
+        <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>356</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -7521,20 +7434,18 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>213</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>20</v>
       </c>
@@ -7582,7 +7493,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7591,34 +7502,34 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>365</v>
+        <v>130</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>366</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>367</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7637,15 +7548,17 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>370</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7670,13 +7583,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7694,7 +7607,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7709,13 +7622,13 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>373</v>
+        <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>374</v>
+        <v>130</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>20</v>
@@ -7723,10 +7636,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7734,13 +7647,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
@@ -7749,16 +7662,16 @@
         <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>145</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>318</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7808,7 +7721,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7823,13 +7736,13 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>20</v>
+        <v>321</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>20</v>
@@ -7837,10 +7750,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7860,18 +7773,20 @@
         <v>20</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7920,7 +7835,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7932,13 +7847,13 @@
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7949,14 +7864,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7975,16 +7890,16 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>370</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>132</v>
+        <v>371</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>133</v>
+        <v>372</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>134</v>
+        <v>373</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8022,19 +7937,19 @@
         <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>138</v>
+        <v>369</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8046,13 +7961,13 @@
         <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -8063,10 +7978,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8074,33 +7989,33 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>124</v>
+        <v>375</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8148,28 +8063,28 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>327</v>
+        <v>374</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>20</v>
@@ -8177,10 +8092,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8191,7 +8106,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>20</v>
@@ -8203,18 +8118,20 @@
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>101</v>
+        <v>382</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>384</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O52" s="2"/>
+        <v>385</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>386</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8238,13 +8155,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -8262,13 +8179,13 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>20</v>
@@ -8277,24 +8194,24 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>147</v>
+        <v>388</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>20</v>
+        <v>389</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>20</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8305,7 +8222,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -8314,21 +8231,23 @@
         <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -8376,13 +8295,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -8391,10 +8310,10 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>20</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -8405,10 +8324,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8416,33 +8335,35 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>124</v>
+        <v>399</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8490,13 +8411,13 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
@@ -8508,21 +8429,21 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>147</v>
+        <v>404</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>20</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8533,7 +8454,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8545,17 +8466,15 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>391</v>
+        <v>213</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>392</v>
+        <v>214</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8604,25 +8523,25 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>390</v>
+        <v>216</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8633,14 +8552,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8659,18 +8578,18 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>396</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>397</v>
+        <v>134</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8706,19 +8625,19 @@
         <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>395</v>
+        <v>223</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8730,16 +8649,16 @@
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>400</v>
+        <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>401</v>
+        <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>20</v>
@@ -8747,10 +8666,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8758,13 +8677,13 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>20</v>
@@ -8773,20 +8692,18 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>213</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>405</v>
+        <v>304</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8834,39 +8751,39 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>409</v>
+        <v>130</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>410</v>
+        <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>411</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8877,7 +8794,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>20</v>
@@ -8886,23 +8803,21 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>413</v>
+        <v>101</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -8926,13 +8841,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>20</v>
+        <v>312</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>20</v>
+        <v>313</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>20</v>
+        <v>314</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -8950,13 +8865,13 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>412</v>
+        <v>315</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
@@ -8965,10 +8880,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -8979,10 +8894,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8990,35 +8905,33 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="I59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>145</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>421</v>
+        <v>317</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>422</v>
+        <v>318</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9066,13 +8979,13 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
@@ -9084,21 +8997,21 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>426</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9118,18 +9031,20 @@
         <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9178,7 +9093,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>127</v>
+        <v>326</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9190,13 +9105,13 @@
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>20</v>
@@ -9207,24 +9122,24 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>20</v>
@@ -9233,18 +9148,18 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>414</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>132</v>
+        <v>415</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>416</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
       </c>
@@ -9280,19 +9195,19 @@
         <v>20</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>138</v>
+        <v>413</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9304,13 +9219,13 @@
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>139</v>
+        <v>418</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>128</v>
+        <v>420</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -9321,10 +9236,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9332,32 +9247,30 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>430</v>
+        <v>214</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9406,7 +9319,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>327</v>
+        <v>216</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9415,16 +9328,16 @@
         <v>87</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -9435,21 +9348,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
@@ -9458,19 +9371,19 @@
         <v>20</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>330</v>
+        <v>134</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>331</v>
+        <v>219</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>332</v>
+        <v>136</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9496,13 +9409,13 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>333</v>
+        <v>20</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>20</v>
@@ -9520,25 +9433,25 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>336</v>
+        <v>223</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>20</v>
@@ -9549,44 +9462,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9634,25 +9549,25 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>341</v>
+        <v>427</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -9663,10 +9578,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9677,7 +9592,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -9686,19 +9601,19 @@
         <v>20</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>345</v>
+        <v>430</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9724,13 +9639,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>20</v>
+        <v>432</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>20</v>
+        <v>433</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -9748,13 +9663,13 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>347</v>
+        <v>428</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
@@ -9766,7 +9681,7 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9788,13 +9703,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>20</v>
@@ -9803,15 +9718,17 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>438</v>
       </c>
@@ -9874,13 +9791,13 @@
         <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AK66" t="s" s="2">
+      <c r="AL66" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -9891,10 +9808,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9902,13 +9819,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>20</v>
@@ -9917,16 +9834,20 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>124</v>
+        <v>442</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>125</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
       </c>
@@ -9974,50 +9895,50 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>127</v>
+        <v>441</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>128</v>
+        <v>447</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>20</v>
+        <v>448</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -10029,17 +9950,15 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>132</v>
+        <v>214</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10088,25 +10007,25 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>138</v>
+        <v>216</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
@@ -10117,14 +10036,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>445</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10137,26 +10056,24 @@
         <v>20</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>134</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
+        <v>219</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
       </c>
@@ -10192,19 +10109,19 @@
         <v>20</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>448</v>
+        <v>223</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10216,13 +10133,13 @@
         <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
@@ -10233,10 +10150,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10247,7 +10164,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -10256,19 +10173,19 @@
         <v>20</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>227</v>
+        <v>452</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10294,13 +10211,13 @@
         <v>20</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>454</v>
+        <v>20</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>20</v>
@@ -10318,13 +10235,13 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>20</v>
@@ -10336,21 +10253,21 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10358,35 +10275,31 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>413</v>
+        <v>349</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10434,13 +10347,13 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
@@ -10449,24 +10362,24 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10486,23 +10399,19 @@
         <v>20</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N72" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="O72" t="s" s="2">
-        <v>467</v>
-      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10550,13 +10459,13 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>20</v>
@@ -10574,15 +10483,15 @@
         <v>20</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>469</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10605,16 +10514,20 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>124</v>
+        <v>470</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>125</v>
+        <v>471</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
       </c>
@@ -10662,7 +10575,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>127</v>
+        <v>469</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10671,16 +10584,16 @@
         <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>20</v>
+        <v>475</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>128</v>
+        <v>420</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
@@ -10691,24 +10604,24 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>20</v>
@@ -10717,18 +10630,18 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>414</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>478</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
       </c>
@@ -10764,37 +10677,37 @@
         <v>20</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>138</v>
+        <v>477</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>20</v>
+        <v>475</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>128</v>
+        <v>481</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
@@ -10805,10 +10718,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10828,20 +10741,18 @@
         <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>473</v>
+        <v>213</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>474</v>
+        <v>214</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -10890,7 +10801,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>477</v>
+        <v>216</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10902,58 +10813,60 @@
         <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>478</v>
+        <v>217</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>370</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>480</v>
+        <v>134</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11002,31 +10915,31 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>482</v>
+        <v>223</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>483</v>
+        <v>217</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" hidden="true">
@@ -11038,35 +10951,39 @@
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>20</v>
+        <v>424</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>485</v>
+        <v>133</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
       </c>
@@ -11114,39 +11031,39 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>427</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>489</v>
+        <v>130</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>147</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11169,19 +11086,17 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>491</v>
+        <v>107</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>494</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11206,13 +11121,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>20</v>
+        <v>489</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>20</v>
+        <v>490</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11230,7 +11145,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11239,16 +11154,16 @@
         <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>496</v>
+        <v>20</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>20</v>
@@ -11259,10 +11174,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11270,13 +11185,13 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>20</v>
@@ -11285,17 +11200,17 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>499</v>
+        <v>156</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11344,25 +11259,25 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>496</v>
+        <v>20</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>502</v>
+        <v>159</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
@@ -11373,10 +11288,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11387,7 +11302,7 @@
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>20</v>
@@ -11399,16 +11314,20 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>497</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
       </c>
@@ -11456,25 +11375,25 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>127</v>
+        <v>496</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
@@ -11485,21 +11404,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>20</v>
@@ -11511,18 +11430,20 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>132</v>
+        <v>499</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>133</v>
+        <v>500</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>502</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>20</v>
       </c>
@@ -11546,13 +11467,13 @@
         <v>20</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>20</v>
+        <v>503</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>20</v>
+        <v>504</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -11570,43 +11491,43 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>138</v>
+        <v>498</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>20</v>
+        <v>505</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>128</v>
+        <v>506</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>20</v>
+        <v>507</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11619,26 +11540,24 @@
         <v>20</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>20</v>
       </c>
@@ -11662,13 +11581,13 @@
         <v>20</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>20</v>
+        <v>512</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>20</v>
+        <v>513</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -11686,7 +11605,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>448</v>
+        <v>508</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11698,13 +11617,13 @@
         <v>20</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>20</v>
+        <v>514</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>20</v>
@@ -11715,10 +11634,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11729,7 +11648,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>20</v>
@@ -11741,18 +11660,18 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>107</v>
+        <v>516</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>20</v>
       </c>
@@ -11776,13 +11695,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>510</v>
+        <v>20</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>511</v>
+        <v>20</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -11800,13 +11719,13 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>20</v>
@@ -11815,10 +11734,10 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>512</v>
+        <v>20</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>20</v>
@@ -11829,10 +11748,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11855,17 +11774,17 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>182</v>
+        <v>522</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -11914,7 +11833,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11929,10 +11848,10 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>185</v>
+        <v>404</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>20</v>
@@ -11943,10 +11862,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11954,34 +11873,34 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>187</v>
+        <v>526</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>189</v>
+        <v>528</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -12006,13 +11925,13 @@
         <v>20</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>20</v>
+        <v>188</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>20</v>
+        <v>530</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>20</v>
+        <v>531</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>20</v>
@@ -12030,13 +11949,13 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>20</v>
@@ -12045,24 +11964,24 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>190</v>
+        <v>532</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>185</v>
+        <v>533</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>20</v>
+        <v>534</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12085,20 +12004,18 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>521</v>
+        <v>537</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>523</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>20</v>
       </c>
@@ -12122,13 +12039,13 @@
         <v>20</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>524</v>
+        <v>20</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>525</v>
+        <v>20</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -12146,7 +12063,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12161,24 +12078,24 @@
         <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>527</v>
+        <v>20</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>528</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12189,34 +12106,38 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>543</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>545</v>
+      </c>
       <c r="R87" t="s" s="2">
         <v>20</v>
       </c>
@@ -12236,13 +12157,13 @@
         <v>20</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>533</v>
+        <v>20</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>534</v>
+        <v>20</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>20</v>
@@ -12260,13 +12181,13 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>529</v>
+        <v>540</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>20</v>
@@ -12275,10 +12196,10 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>20</v>
+        <v>547</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
@@ -12289,10 +12210,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12303,7 +12224,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>20</v>
@@ -12315,18 +12236,18 @@
         <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>551</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
       </c>
@@ -12374,13 +12295,13 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>20</v>
@@ -12389,24 +12310,24 @@
         <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>20</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12417,7 +12338,7 @@
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>20</v>
@@ -12429,17 +12350,19 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="O89" t="s" s="2">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -12488,13 +12411,13 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>20</v>
@@ -12506,21 +12429,21 @@
         <v>20</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>425</v>
+        <v>560</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>20</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12528,34 +12451,34 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>107</v>
+        <v>563</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>547</v>
+        <v>564</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -12580,13 +12503,13 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>551</v>
+        <v>20</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>552</v>
+        <v>20</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -12604,13 +12527,13 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>20</v>
@@ -12619,24 +12542,24 @@
         <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>555</v>
+        <v>569</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12659,17 +12582,15 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>227</v>
+        <v>571</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -12694,13 +12615,13 @@
         <v>20</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>20</v>
+        <v>574</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>20</v>
+        <v>575</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>20</v>
@@ -12718,7 +12639,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12733,28 +12654,28 @@
         <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>560</v>
+        <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>20</v>
+        <v>576</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>20</v>
+        <v>577</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>20</v>
+        <v>579</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
@@ -12767,32 +12688,28 @@
         <v>20</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>282</v>
+        <v>580</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>564</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>565</v>
+        <v>583</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q92" t="s" s="2">
-        <v>566</v>
-      </c>
+      <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
         <v>20</v>
       </c>
@@ -12836,7 +12753,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12851,24 +12768,24 @@
         <v>99</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>567</v>
+        <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>568</v>
+        <v>584</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>20</v>
+        <v>585</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12891,18 +12808,16 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>571</v>
+        <v>587</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>573</v>
-      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>20</v>
       </c>
@@ -12950,7 +12865,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12965,24 +12880,24 @@
         <v>99</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>364</v>
+        <v>20</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>365</v>
+        <v>589</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>574</v>
+        <v>590</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12990,13 +12905,13 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>20</v>
@@ -13005,20 +12920,16 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>576</v>
+        <v>213</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>20</v>
       </c>
@@ -13066,7 +12977,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>575</v>
+        <v>591</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13084,21 +12995,21 @@
         <v>20</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>582</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13112,7 +13023,7 @@
         <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>20</v>
@@ -13121,19 +13032,17 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>584</v>
+        <v>442</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13182,7 +13091,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13197,24 +13106,24 @@
         <v>99</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>589</v>
+        <v>447</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>590</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13237,13 +13146,13 @@
         <v>20</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>592</v>
+        <v>213</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>593</v>
+        <v>214</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>594</v>
+        <v>215</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13270,29 +13179,31 @@
         <v>20</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>595</v>
+        <v>20</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>596</v>
+        <v>20</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AC96" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>591</v>
+        <v>216</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13304,40 +13215,38 @@
         <v>20</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>598</v>
+        <v>217</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>599</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="C97" t="s" s="2">
         <v>601</v>
       </c>
+      <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>20</v>
@@ -13349,15 +13258,17 @@
         <v>20</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>602</v>
+        <v>133</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>593</v>
+        <v>134</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="N97" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -13394,55 +13305,55 @@
         <v>20</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="AC97" t="s" s="2">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="AD97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>591</v>
+        <v>223</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>598</v>
+        <v>217</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>599</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>604</v>
+        <v>20</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -13458,21 +13369,21 @@
         <v>20</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>605</v>
+        <v>452</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>606</v>
+        <v>453</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>608</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>20</v>
       </c>
@@ -13520,7 +13431,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>603</v>
+        <v>456</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13538,21 +13449,21 @@
         <v>20</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>609</v>
+        <v>457</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>610</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13560,28 +13471,28 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>605</v>
+        <v>349</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>612</v>
+        <v>459</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>613</v>
+        <v>460</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13632,7 +13543,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>611</v>
+        <v>461</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13650,21 +13561,21 @@
         <v>20</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>614</v>
+        <v>462</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>615</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13684,16 +13595,16 @@
         <v>20</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>124</v>
+        <v>464</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>617</v>
+        <v>465</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>618</v>
+        <v>466</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13744,10 +13655,10 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>616</v>
+        <v>467</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>87</v>
@@ -13762,695 +13673,17 @@
         <v>20</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>619</v>
+        <v>468</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN106">
+  <autoFilter ref="A1:AN100">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14460,7 +13693,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI105">
+  <conditionalFormatting sqref="A2:AI99">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:27:53+08:00</t>
+    <t>2025-09-26T02:46:56+08:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-PASportCarePlan.xlsx
+++ b/docs/StructureDefinition-PASportCarePlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-26T02:46:56+08:00</t>
+    <t>2025-09-26T16:12:42+08:00</t>
   </si>
   <si>
     <t>Publisher</t>
